--- a/python/steam.xlsx
+++ b/python/steam.xlsx
@@ -67,7 +67,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -444,43 +447,96 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1" s="1">
-      <c r="A1" s="2" t="inlineStr">
+    <row r="1" ht="12.75" customHeight="1" s="2">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>Game</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>Hours</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Hours Added Since Last</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Last 2 Weeks Hours</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="12.75" customHeight="1" s="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>poop</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>poop</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>poop</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="12.75" customHeight="1" s="2">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>poop</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>poop</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="12.75" customHeight="1" s="2">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>poop</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Test1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Test2</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Test3</t>
         </is>
       </c>
     </row>

--- a/python/steam.xlsx
+++ b/python/steam.xlsx
@@ -477,10 +477,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+      <selection pane="topLeft" activeCell="M15" activeCellId="0" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
@@ -616,56 +616,108 @@
         <v>369</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="6" ht="12.75" customHeight="1" s="4">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>14:20:10</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>Halo: The Master Chief Collection</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="6" t="n">
         <v>18455</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="6" t="n">
         <v>1303</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="8" t="inlineStr">
+    <row r="7" ht="12.75" customHeight="1" s="4">
+      <c r="A7" s="7" t="inlineStr">
         <is>
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="B7" s="8" t="inlineStr">
+      <c r="B7" s="7" t="inlineStr">
         <is>
           <t>14:20:10</t>
         </is>
       </c>
-      <c r="C7" s="8" t="inlineStr">
+      <c r="C7" s="7" t="inlineStr">
         <is>
           <t>Rocket League</t>
         </is>
       </c>
-      <c r="D7" s="8" t="n">
+      <c r="D7" s="7" t="n">
         <v>168713</v>
       </c>
-      <c r="E7" s="8" t="n">
+      <c r="E7" s="7" t="n">
         <v>117</v>
       </c>
-      <c r="F7" s="8" t="n">
+      <c r="F7" s="7" t="n">
         <v>487</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>06:30:02</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Halo: The Master Chief Collection</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>18518</v>
+      </c>
+      <c r="E8" t="n">
+        <v>63</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="8" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B9" s="8" t="inlineStr">
+        <is>
+          <t>06:30:02</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>Rocket League</t>
+        </is>
+      </c>
+      <c r="D9" s="8" t="n">
+        <v>168725</v>
+      </c>
+      <c r="E9" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="F9" s="8" t="n">
+        <v>499</v>
       </c>
     </row>
   </sheetData>
